--- a/Planilhas/tabela_de_consulta_base.xlsx
+++ b/Planilhas/tabela_de_consulta_base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\licin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D5AED19-636A-4010-8474-E3D48EFF4A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4091FAEA-8880-4940-BBE0-B18A95EB44F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -315,7 +315,7 @@
     <t>Dimensão 2 - PRODUÇÃO AGRÍCOLA</t>
   </si>
   <si>
-    <t>Indicador 2.1: Impacto das práticas escolares no fomento à DIVERSIDADE AGRÍCOLA</t>
+    <t xml:space="preserve">Indicador 2.1: Impacto das práticas escolares no fomento à diversidade agrícola </t>
   </si>
   <si>
     <t>2.1.1</t>
@@ -468,7 +468,7 @@
     <t>Incentivo da escola para realização de transição agroecológca</t>
   </si>
   <si>
-    <t>Indicador 2.2: Impacto das práticas escolares na VALORIZAÇÃO E FORTALECIMENTO DO CAMPO</t>
+    <t>Indicador 2.2: Impacto das práticas escolares na valorização e fortalecimento do campo</t>
   </si>
   <si>
     <t>2.2.1</t>
@@ -486,7 +486,7 @@
     <t>A escola incentiva que as/os estudantes ajudem seus familiares nas atividades agrícolas?</t>
   </si>
   <si>
-    <t>Participação nas atividades agrícolas da família da família</t>
+    <t>Participação nas atividades agrícolas da família</t>
   </si>
   <si>
     <t>2.2.2</t>
@@ -549,7 +549,7 @@
     <t>Influência da escola no engajamento com a vida e o trabalho no campo</t>
   </si>
   <si>
-    <t>Indicador 2.3: Impacto das práticas escolares para GERAÇÃO DE RENDA E DE OPORTUNIDADES ECONÔMICAS</t>
+    <t>Indicador 2.3: Impacto das práticas escolares para geração de renda e de oportunidades econômicas</t>
   </si>
   <si>
     <t>2.3.1</t>
@@ -2140,8 +2140,8 @@
   <dimension ref="A1:AB1008"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" activeCellId="1" sqref="F6 E4"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
